--- a/data/trans_orig/FREC_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FREC_TABACO-Clase-trans_orig.xlsx
@@ -6252,12 +6252,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6267,12 +6267,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -12149,97 +12149,97 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>1163</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>1177</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12262,12 +12262,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -12277,12 +12277,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -14702,12 +14702,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -14717,12 +14717,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">

--- a/data/trans_orig/FREC_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FREC_TABACO-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en País Vasco</t>
+          <t>Frecuencia de consumición de tabaco en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4771,7 +4771,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en Andalucia</t>
+          <t>Frecuencia de consumición de tabaco en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8996,7 +8996,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en C.Valenciana</t>
+          <t>Frecuencia de consumición de tabaco en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13221,7 +13221,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en Barcelona</t>
+          <t>Frecuencia de consumición de tabaco en Barcelona (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FREC_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FREC_TABACO-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8938</t>
+          <t>22008</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6756</t>
+          <t>15845</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11814</t>
+          <t>29874</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11988</t>
+          <t>23529</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9555</t>
+          <t>17549</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15146</t>
+          <t>30320</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>20926</t>
+          <t>45537</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>17490</t>
+          <t>38020</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>24753</t>
+          <t>55883</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,33%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2701</t>
+          <t>7644</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>12989</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>6725</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>10960</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>14369</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>4012</t>
+          <t>10097</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>7918</t>
+          <t>21058</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34387</t>
+          <t>65323</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30564</t>
+          <t>55895</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38164</t>
+          <t>75282</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,43%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,23%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25393</t>
+          <t>63049</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21694</t>
+          <t>54075</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28825</t>
+          <t>72976</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>38,46%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>59780</t>
+          <t>128372</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>55101</t>
+          <t>114025</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>65321</t>
+          <t>142581</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>39,11%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31491</t>
+          <t>79881</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27896</t>
+          <t>70087</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35546</t>
+          <t>90206</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39112</t>
+          <t>96445</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35289</t>
+          <t>85928</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42937</t>
+          <t>106393</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>45,29%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,06%</t>
+          <t>56,07%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>70603</t>
+          <t>176326</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>65370</t>
+          <t>162678</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>75860</t>
+          <t>191024</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>48,36%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>52,39%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6050</t>
+          <t>14662</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4237</t>
+          <t>10189</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8247</t>
+          <t>20845</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10231</t>
+          <t>17157</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7933</t>
+          <t>12453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12999</t>
+          <t>22692</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>16281</t>
+          <t>31819</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>13297</t>
+          <t>24636</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>20054</t>
+          <t>39454</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>17,52%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>9901</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2917</t>
+          <t>9780</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3028</t>
+          <t>8979</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>5271</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4718</t>
+          <t>15929</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18896</t>
+          <t>44651</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15784</t>
+          <t>37162</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21841</t>
+          <t>53033</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>42,98%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21222</t>
+          <t>40513</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18112</t>
+          <t>33505</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24338</t>
+          <t>47568</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>40118</t>
+          <t>85164</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>35774</t>
+          <t>74843</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>44648</t>
+          <t>96378</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>37,2%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>42,8%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18787</t>
+          <t>39909</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15820</t>
+          <t>32560</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21495</t>
+          <t>48330</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>46,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29628</t>
+          <t>59313</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>26118</t>
+          <t>52245</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>33033</t>
+          <t>67570</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>48415</t>
+          <t>99223</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>44124</t>
+          <t>89346</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>53143</t>
+          <t>111136</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>44,06%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>49,35%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14624</t>
+          <t>32915</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11850</t>
+          <t>25957</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17847</t>
+          <t>41362</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>9440</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3946</t>
+          <t>6159</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8089</t>
+          <t>13734</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>20484</t>
+          <t>42355</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>17201</t>
+          <t>34925</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>24439</t>
+          <t>51187</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>24,84%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>5697</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>10642</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>173</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -2032,12 +2032,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3116</t>
+          <t>5870</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>10777</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>35778</t>
+          <t>59762</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31942</t>
+          <t>52423</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39714</t>
+          <t>68032</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,7%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,12%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8285</t>
+          <t>14606</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6219</t>
+          <t>10554</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10493</t>
+          <t>18858</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>44062</t>
+          <t>74368</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39190</t>
+          <t>65356</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>48772</t>
+          <t>82910</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>31,71%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>40,23%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29156</t>
+          <t>53335</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25387</t>
+          <t>45587</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33597</t>
+          <t>61262</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,33%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,71%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19430</t>
+          <t>30155</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16905</t>
+          <t>25683</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21827</t>
+          <t>34660</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>57,63%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>47,23%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>63,74%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>48586</t>
+          <t>83490</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>44003</t>
+          <t>75359</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>53520</t>
+          <t>93280</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>41,79%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>45,26%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20559</t>
+          <t>43892</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17319</t>
+          <t>36297</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24255</t>
+          <t>53469</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19184</t>
+          <t>34885</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16168</t>
+          <t>28517</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>23019</t>
+          <t>42734</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>39743</t>
+          <t>78777</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>34343</t>
+          <t>68236</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>44911</t>
+          <t>91031</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>24,89%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2282</t>
+          <t>8312</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3780</t>
+          <t>13776</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>6846</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>4575</t>
+          <t>11702</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>2854</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>6653</t>
+          <t>17819</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>34807</t>
+          <t>62714</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>30797</t>
+          <t>54322</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>38888</t>
+          <t>71439</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>25264</t>
+          <t>48454</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>21506</t>
+          <t>40233</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>29197</t>
+          <t>56598</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>60070</t>
+          <t>111168</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>55182</t>
+          <t>99617</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>66206</t>
+          <t>123313</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>33,71%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>28595</t>
+          <t>63736</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24506</t>
+          <t>55333</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32504</t>
+          <t>74099</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>47607</t>
+          <t>100373</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>43277</t>
+          <t>91093</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>51686</t>
+          <t>110184</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>53,65%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>48,69%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>54,78%</t>
+          <t>58,89%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>76201</t>
+          <t>164109</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>70645</t>
+          <t>151464</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>82785</t>
+          <t>177992</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>42,2%</t>
+          <t>44,87%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>48,66%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3012,32 +3012,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10348</t>
+          <t>18955</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>14181</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13037</t>
+          <t>24415</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3047,32 +3047,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>14454</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>6702</t>
+          <t>10323</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>11617</t>
+          <t>18906</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3082,32 +3082,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>19176</t>
+          <t>33409</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>15625</t>
+          <t>27025</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>22701</t>
+          <t>40545</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>20,6%</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>901</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,32 +3160,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>474</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>4095</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,32 +3195,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>2551</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>922</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>5694</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -3238,32 +3238,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>12725</t>
+          <t>25680</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10165</t>
+          <t>19872</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15494</t>
+          <t>31817</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>43,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,32 +3273,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>16825</t>
+          <t>26937</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>13922</t>
+          <t>21352</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>20282</t>
+          <t>33396</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>29550</t>
+          <t>52617</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>25844</t>
+          <t>43793</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>34020</t>
+          <t>60805</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>30,9%</t>
         </is>
       </c>
     </row>
@@ -3351,32 +3351,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12990</t>
+          <t>27489</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>10598</t>
+          <t>21916</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15506</t>
+          <t>33985</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,32 +3386,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>45647</t>
+          <t>80741</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>41748</t>
+          <t>74038</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>49375</t>
+          <t>87551</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>63,03%</t>
+          <t>65,23%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>59,81%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>68,18%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,32 +3421,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>58636</t>
+          <t>108230</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>54125</t>
+          <t>98757</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>63517</t>
+          <t>118631</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>54,99%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>50,18%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>60,28%</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3581,32 +3581,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3087</t>
+          <t>8917</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3616,32 +3616,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3148</t>
+          <t>8027</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>4832</t>
+          <t>14199</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3651,32 +3651,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>4788</t>
+          <t>12550</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>6763</t>
+          <t>19566</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>11,32%</t>
         </is>
       </c>
     </row>
@@ -3694,32 +3694,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>570</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3729,32 +3729,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>536</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>2196</t>
+          <t>5226</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3764,32 +3764,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>6673</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -3807,32 +3807,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2674</t>
+          <t>7246</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3842,32 +3842,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>8809</t>
+          <t>17432</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>6730</t>
+          <t>12668</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>11469</t>
+          <t>25268</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3877,32 +3877,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>11483</t>
+          <t>24678</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>8943</t>
+          <t>18472</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>14406</t>
+          <t>33768</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>19,54%</t>
         </is>
       </c>
     </row>
@@ -3920,32 +3920,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>12413</t>
+          <t>35124</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>10800</t>
+          <t>29904</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>13856</t>
+          <t>39428</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>71,66%</t>
+          <t>72,51%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>62,35%</t>
+          <t>61,73%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>81,4%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,32 +3955,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>48163</t>
+          <t>97021</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>45380</t>
+          <t>88624</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>50715</t>
+          <t>103772</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>78,03%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>74,6%</t>
+          <t>71,28%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>83,46%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,32 +3990,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>60577</t>
+          <t>132145</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>57175</t>
+          <t>122991</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>63445</t>
+          <t>141013</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>77,51%</t>
+          <t>76,48%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>73,16%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>81,18%</t>
+          <t>81,62%</t>
         </is>
       </c>
     </row>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4103,17 +4103,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4150,32 +4150,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>62159</t>
+          <t>136956</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>56093</t>
+          <t>121850</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>68769</t>
+          <t>152323</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4185,32 +4185,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>59239</t>
+          <t>107492</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>53187</t>
+          <t>94731</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>65885</t>
+          <t>120380</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4220,32 +4220,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>121399</t>
+          <t>244447</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>112210</t>
+          <t>223531</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>130262</t>
+          <t>264510</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,27%</t>
         </is>
       </c>
     </row>
@@ -4263,32 +4263,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>10403</t>
+          <t>28775</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>7747</t>
+          <t>21650</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>13011</t>
+          <t>38256</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4298,32 +4298,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>8763</t>
+          <t>18097</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>6537</t>
+          <t>12857</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>11866</t>
+          <t>25058</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4333,32 +4333,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>19166</t>
+          <t>46872</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>15601</t>
+          <t>37683</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>23161</t>
+          <t>58942</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -4376,32 +4376,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>139266</t>
+          <t>265375</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>131387</t>
+          <t>247805</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>147252</t>
+          <t>285827</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4411,32 +4411,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>105798</t>
+          <t>210992</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>97849</t>
+          <t>193970</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>113751</t>
+          <t>229494</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4446,32 +4446,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>245064</t>
+          <t>476367</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>233657</t>
+          <t>451745</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>255673</t>
+          <t>502456</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>34,15%</t>
+          <t>32,81%</t>
         </is>
       </c>
     </row>
@@ -4489,32 +4489,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>133431</t>
+          <t>299474</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>125834</t>
+          <t>280001</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>142103</t>
+          <t>318732</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4524,32 +4524,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>229587</t>
+          <t>464049</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>221155</t>
+          <t>443734</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>238614</t>
+          <t>482650</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>57,96%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>55,42%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>59,15%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>363018</t>
+          <t>763522</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>351392</t>
+          <t>737418</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>375882</t>
+          <t>791993</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>49,86%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>48,16%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>50,21%</t>
+          <t>51,72%</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4637,17 +4637,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4672,17 +4672,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44980</t>
+          <t>45137</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75798</t>
+          <t>74230</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28366</t>
+          <t>28271</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47835</t>
+          <t>47687</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5036,12 +5036,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>80013</t>
+          <t>79183</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>115722</t>
+          <t>115989</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5051,12 +5051,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>17,43%</t>
         </is>
       </c>
     </row>
@@ -5079,12 +5079,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2863</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14553</t>
+          <t>15042</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5094,12 +5094,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>5925</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16060</t>
+          <t>16172</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>11014</t>
+          <t>11410</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>26621</t>
+          <t>25852</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5164,12 +5164,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>81423</t>
+          <t>82017</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>117882</t>
+          <t>118009</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>39317</t>
+          <t>39697</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>60649</t>
+          <t>61023</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5242,12 +5242,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>128021</t>
+          <t>125126</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>167971</t>
+          <t>167149</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5277,12 +5277,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>182570</t>
+          <t>181701</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>221683</t>
+          <t>222691</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5320,12 +5320,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,79%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,46%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5340,12 +5340,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>188495</t>
+          <t>188774</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>215351</t>
+          <t>215239</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>72,01%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>380027</t>
+          <t>380318</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>429794</t>
+          <t>429115</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5390,12 +5390,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>57,14%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>64,47%</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39019</t>
+          <t>40152</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66889</t>
+          <t>69420</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5550,12 +5550,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35943</t>
+          <t>34780</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>58732</t>
+          <t>57463</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>81061</t>
+          <t>82426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>116501</t>
+          <t>118671</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>20,32%</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5648,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5699</t>
+          <t>5007</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28937</t>
+          <t>29838</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5663,12 +5663,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4125</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12649</t>
+          <t>12594</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5698,12 +5698,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12148</t>
+          <t>11868</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>40384</t>
+          <t>37764</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53980</t>
+          <t>54564</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82280</t>
+          <t>83258</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32663</t>
+          <t>32677</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52716</t>
+          <t>53002</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>91166</t>
+          <t>93478</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>127369</t>
+          <t>129396</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>22,15%</t>
         </is>
       </c>
     </row>
@@ -5874,12 +5874,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>170838</t>
+          <t>172493</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>209715</t>
+          <t>207392</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5889,12 +5889,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>53,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,72%</t>
+          <t>64,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>151346</t>
+          <t>151902</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>178843</t>
+          <t>178979</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>58,41%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>334034</t>
+          <t>331944</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>379383</t>
+          <t>378210</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5959,12 +5959,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>57,19%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>64,75%</t>
         </is>
       </c>
     </row>
@@ -6104,12 +6104,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16902</t>
+          <t>19981</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>142363</t>
+          <t>140513</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10579</t>
+          <t>10895</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22591</t>
+          <t>22905</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6154,12 +6154,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>25075</t>
+          <t>27009</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>147559</t>
+          <t>146881</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>25,63%</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8402</t>
+          <t>8368</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>7522</t>
+          <t>7544</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -6330,12 +6330,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>108508</t>
+          <t>108473</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>426298</t>
+          <t>420006</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6365,12 +6365,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7177</t>
+          <t>7119</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17378</t>
+          <t>17235</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6380,12 +6380,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>112338</t>
+          <t>111808</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>491270</t>
+          <t>469551</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6415,12 +6415,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>85,74%</t>
+          <t>81,95%</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29840</t>
+          <t>33360</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>230000</t>
+          <t>233967</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>49,21%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62569</t>
+          <t>62460</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>76843</t>
+          <t>77051</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6493,12 +6493,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>64,13%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>78,76%</t>
+          <t>78,97%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>54912</t>
+          <t>67628</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>318998</t>
+          <t>318819</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6528,12 +6528,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>55,64%</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>137622</t>
+          <t>136337</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>187140</t>
+          <t>188392</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>47798</t>
+          <t>44582</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>177171</t>
+          <t>178414</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>160863</t>
+          <t>168359</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>348628</t>
+          <t>351242</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6758,12 +6758,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>29,95%</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6786,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8770</t>
+          <t>7851</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>29515</t>
+          <t>30189</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>15129</t>
+          <t>15015</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>11186</t>
+          <t>12175</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>40055</t>
+          <t>39476</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6899,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>89336</t>
+          <t>87318</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>123988</t>
+          <t>122776</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19760</t>
+          <t>18456</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>78659</t>
+          <t>77172</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6949,12 +6949,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>85669</t>
+          <t>88492</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>194578</t>
+          <t>194582</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
@@ -7012,12 +7012,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>230070</t>
+          <t>228550</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>279428</t>
+          <t>279813</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7027,12 +7027,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>42,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7047,12 +7047,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>374923</t>
+          <t>374265</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>565240</t>
+          <t>568437</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7062,12 +7062,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>611325</t>
+          <t>607264</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>913355</t>
+          <t>891402</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7097,12 +7097,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>52,13%</t>
+          <t>51,78%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>77,89%</t>
+          <t>76,01%</t>
         </is>
       </c>
     </row>
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>54785</t>
+          <t>55600</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>88119</t>
+          <t>87662</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>41,52%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7277,12 +7277,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>50038</t>
+          <t>50596</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>107758</t>
+          <t>107948</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7292,12 +7292,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7312,12 +7312,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>106919</t>
+          <t>105686</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>183831</t>
+          <t>184858</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7327,12 +7327,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>28,98%</t>
         </is>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>5144</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7390,12 +7390,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>11170</t>
+          <t>11286</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7405,12 +7405,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>12327</t>
+          <t>13197</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7440,12 +7440,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -7468,12 +7468,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25251</t>
+          <t>24806</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>48585</t>
+          <t>47511</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7483,12 +7483,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>25364</t>
+          <t>23393</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>57216</t>
+          <t>55418</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>49982</t>
+          <t>52911</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>95281</t>
+          <t>95959</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>90823</t>
+          <t>89092</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>122684</t>
+          <t>121416</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>57,21%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>259589</t>
+          <t>260532</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>344043</t>
+          <t>347312</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>61,21%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>81,6%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -7651,12 +7651,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>362568</t>
+          <t>361272</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>469521</t>
+          <t>471645</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -7666,12 +7666,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>56,64%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>73,95%</t>
         </is>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5416</t>
+          <t>5206</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>25741</t>
+          <t>27438</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7826,12 +7826,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7846,12 +7846,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>40695</t>
+          <t>39778</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>67150</t>
+          <t>67685</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7881,12 +7881,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>51449</t>
+          <t>49254</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>84896</t>
+          <t>83939</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,83%</t>
         </is>
       </c>
     </row>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>27177</t>
+          <t>27333</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>2564</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>15596</t>
+          <t>13766</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>5990</t>
+          <t>5942</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>33900</t>
+          <t>32945</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>13187</t>
+          <t>14797</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8052,12 +8052,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>18360</t>
+          <t>19394</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>37868</t>
+          <t>39037</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8087,12 +8087,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>23387</t>
+          <t>22406</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>45519</t>
+          <t>45731</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8122,12 +8122,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -8150,12 +8150,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>121592</t>
+          <t>120873</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>151009</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8165,12 +8165,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>73,36%</t>
+          <t>72,92%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8185,12 +8185,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>384465</t>
+          <t>382601</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>417273</t>
+          <t>417279</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>78,68%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
@@ -8220,12 +8220,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>513725</t>
+          <t>516026</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>560287</t>
+          <t>562617</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>78,51%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>85,98%</t>
         </is>
       </c>
     </row>
@@ -8380,12 +8380,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>274057</t>
+          <t>285164</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>491513</t>
+          <t>492822</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8395,12 +8395,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8415,12 +8415,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>253641</t>
+          <t>262712</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>405801</t>
+          <t>407602</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8430,12 +8430,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>625911</t>
+          <t>640437</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>869353</t>
+          <t>873756</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8465,12 +8465,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>20,38%</t>
         </is>
       </c>
     </row>
@@ -8493,12 +8493,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>28771</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>72973</t>
+          <t>75265</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>25650</t>
+          <t>26483</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>51368</t>
+          <t>51312</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -8543,12 +8543,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>62275</t>
+          <t>62981</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>113899</t>
+          <t>114187</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
@@ -8606,12 +8606,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>400249</t>
+          <t>405492</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1075093</t>
+          <t>1121437</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>53,91%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>159675</t>
+          <t>161767</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>254260</t>
+          <t>258004</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>598070</t>
+          <t>597004</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>1568613</t>
+          <t>1434533</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -8691,12 +8691,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>33,46%</t>
         </is>
       </c>
     </row>
@@ -8719,12 +8719,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>688285</t>
+          <t>644264</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1153207</t>
+          <t>1147366</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -8734,12 +8734,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>55,44%</t>
+          <t>55,15%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -8754,12 +8754,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>1514675</t>
+          <t>1505122</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>1773651</t>
+          <t>1744903</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -8769,12 +8769,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>68,19%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -8789,12 +8789,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>2134675</t>
+          <t>2169649</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>2820138</t>
+          <t>2826499</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>49,79%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>65,77%</t>
+          <t>65,92%</t>
         </is>
       </c>
     </row>
@@ -13416,12 +13416,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29159</t>
+          <t>28821</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43436</t>
+          <t>42717</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -13431,12 +13431,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -13451,12 +13451,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19168</t>
+          <t>19687</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>31285</t>
+          <t>31910</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -13466,12 +13466,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>52251</t>
+          <t>51647</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>71299</t>
+          <t>70227</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -13501,12 +13501,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,26%</t>
         </is>
       </c>
     </row>
@@ -13529,12 +13529,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7825</t>
+          <t>8217</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17740</t>
+          <t>17886</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -13564,12 +13564,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6842</t>
+          <t>6474</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15289</t>
+          <t>14918</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -13579,12 +13579,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -13599,12 +13599,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>16961</t>
+          <t>17008</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>29687</t>
+          <t>29794</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -13614,12 +13614,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -13642,12 +13642,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59096</t>
+          <t>59048</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76113</t>
+          <t>76066</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -13657,12 +13657,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -13677,12 +13677,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>55198</t>
+          <t>55461</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>72707</t>
+          <t>73795</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -13692,12 +13692,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -13712,12 +13712,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>119071</t>
+          <t>117658</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143110</t>
+          <t>143562</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -13727,12 +13727,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>35,29%</t>
         </is>
       </c>
     </row>
@@ -13755,12 +13755,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77299</t>
+          <t>75746</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>95505</t>
+          <t>95396</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -13770,12 +13770,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -13790,12 +13790,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>95625</t>
+          <t>95813</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>116449</t>
+          <t>115972</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -13805,12 +13805,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>56,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -13825,12 +13825,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>177347</t>
+          <t>179732</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>205959</t>
+          <t>207230</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -13840,12 +13840,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>44,18%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>50,63%</t>
+          <t>50,94%</t>
         </is>
       </c>
     </row>
@@ -13985,12 +13985,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22890</t>
+          <t>22303</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36133</t>
+          <t>35390</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -14000,12 +14000,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -14020,12 +14020,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32618</t>
+          <t>32693</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47083</t>
+          <t>46792</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -14035,12 +14035,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>59814</t>
+          <t>57440</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>78474</t>
+          <t>77913</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -14070,12 +14070,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,17%</t>
         </is>
       </c>
     </row>
@@ -14098,12 +14098,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>3088</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9486</t>
+          <t>9498</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -14113,12 +14113,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -14133,12 +14133,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3461</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10191</t>
+          <t>10444</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -14148,12 +14148,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -14168,12 +14168,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7977</t>
+          <t>8152</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16859</t>
+          <t>16952</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -14183,12 +14183,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,91%</t>
         </is>
       </c>
     </row>
@@ -14211,12 +14211,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30738</t>
+          <t>31159</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44334</t>
+          <t>45024</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -14226,12 +14226,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -14246,12 +14246,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37489</t>
+          <t>37244</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53084</t>
+          <t>52676</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -14261,12 +14261,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -14281,12 +14281,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>71761</t>
+          <t>72157</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>92854</t>
+          <t>93162</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -14296,12 +14296,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>32,49%</t>
         </is>
       </c>
     </row>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>41297</t>
+          <t>41459</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>55961</t>
+          <t>55215</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -14339,12 +14339,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -14359,12 +14359,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>66752</t>
+          <t>67498</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>84070</t>
+          <t>85503</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -14374,12 +14374,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -14394,12 +14394,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>113127</t>
+          <t>112569</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>135310</t>
+          <t>135930</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -14409,12 +14409,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>47,4%</t>
         </is>
       </c>
     </row>
@@ -14554,12 +14554,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11729</t>
+          <t>11007</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22484</t>
+          <t>22574</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -14569,12 +14569,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -14589,12 +14589,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6098</t>
+          <t>6019</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>15095</t>
+          <t>14550</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -14604,12 +14604,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -14624,12 +14624,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>19225</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>34450</t>
+          <t>34055</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -14639,12 +14639,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>25,58%</t>
         </is>
       </c>
     </row>
@@ -14667,12 +14667,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12594</t>
+          <t>12832</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -14682,12 +14682,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -14737,12 +14737,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>14080</t>
+          <t>12304</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -14780,12 +14780,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>37710</t>
+          <t>36817</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>52473</t>
+          <t>52298</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -14795,12 +14795,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -14815,12 +14815,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>6704</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14676</t>
+          <t>14723</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -14830,12 +14830,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -14850,12 +14850,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>46868</t>
+          <t>47187</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>63763</t>
+          <t>64899</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -14865,12 +14865,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>48,76%</t>
         </is>
       </c>
     </row>
@@ -14893,12 +14893,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16967</t>
+          <t>16541</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28582</t>
+          <t>28581</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -14928,12 +14928,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19466</t>
+          <t>19409</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28965</t>
+          <t>28870</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -14943,12 +14943,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>65,51%</t>
+          <t>65,29%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -14963,12 +14963,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>39228</t>
+          <t>37861</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>54883</t>
+          <t>54438</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -14978,12 +14978,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>40,9%</t>
         </is>
       </c>
     </row>
@@ -15123,12 +15123,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25153</t>
+          <t>24967</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40306</t>
+          <t>40700</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -15138,12 +15138,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -15158,12 +15158,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20887</t>
+          <t>20007</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>34581</t>
+          <t>35117</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -15173,47 +15173,47 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>58564</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>48594</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>69219</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>16,12%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
           <t>22,96%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>58564</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>48669</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>69446</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>19,42%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>16,14%</t>
-        </is>
-      </c>
-      <c r="W19" s="2" t="inlineStr">
-        <is>
-          <t>23,03%</t>
         </is>
       </c>
     </row>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5350</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13383</t>
+          <t>13677</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -15251,12 +15251,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -15271,12 +15271,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2221</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>7721</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -15286,12 +15286,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -15306,12 +15306,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>8593</t>
+          <t>8657</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>18952</t>
+          <t>18427</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -15321,12 +15321,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>46610</t>
+          <t>47314</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>67261</t>
+          <t>68394</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -15364,12 +15364,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -15384,12 +15384,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>28280</t>
+          <t>27402</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>45727</t>
+          <t>44205</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -15399,12 +15399,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -15419,12 +15419,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>79632</t>
+          <t>78256</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>106277</t>
+          <t>104927</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -15434,12 +15434,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>34,8%</t>
         </is>
       </c>
     </row>
@@ -15462,12 +15462,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45280</t>
+          <t>44411</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>64413</t>
+          <t>64051</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -15477,12 +15477,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -15497,12 +15497,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>73725</t>
+          <t>74380</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>93098</t>
+          <t>93601</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -15512,12 +15512,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>61,82%</t>
+          <t>62,15%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -15532,12 +15532,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>123577</t>
+          <t>123374</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>152059</t>
+          <t>152086</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -15547,7 +15547,7 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
@@ -15692,12 +15692,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11511</t>
+          <t>11758</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>23142</t>
+          <t>22607</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -15707,12 +15707,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>45,11%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -15727,12 +15727,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>6077</t>
+          <t>6156</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>15560</t>
+          <t>14599</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -15742,12 +15742,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -15762,12 +15762,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>19854</t>
+          <t>19262</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>34978</t>
+          <t>35420</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -15777,12 +15777,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>26,28%</t>
         </is>
       </c>
     </row>
@@ -15805,12 +15805,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>793</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5170</t>
+          <t>5502</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -15820,12 +15820,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -15840,12 +15840,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>8846</t>
+          <t>8836</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -15855,12 +15855,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -15875,12 +15875,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>11216</t>
+          <t>11555</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -15890,12 +15890,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -15918,12 +15918,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8282</t>
+          <t>8249</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>18798</t>
+          <t>18810</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -15933,12 +15933,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -15953,12 +15953,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>13271</t>
+          <t>13411</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>27264</t>
+          <t>26805</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -15968,12 +15968,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -15988,12 +15988,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>24334</t>
+          <t>23815</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>40585</t>
+          <t>40260</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -16003,12 +16003,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>29,87%</t>
         </is>
       </c>
     </row>
@@ -16031,12 +16031,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>13230</t>
+          <t>13957</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24702</t>
+          <t>24356</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -16046,12 +16046,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>48,6%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -16066,12 +16066,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>44680</t>
+          <t>44006</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>60520</t>
+          <t>58257</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -16081,12 +16081,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>71,46%</t>
+          <t>68,79%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -16101,12 +16101,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>60659</t>
+          <t>61624</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>80907</t>
+          <t>81160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -16116,12 +16116,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>45,72%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>60,21%</t>
         </is>
       </c>
     </row>
@@ -16261,12 +16261,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6297</t>
+          <t>5994</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -16276,12 +16276,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -16296,12 +16296,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>1395</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>6787</t>
+          <t>6769</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -16311,12 +16311,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -16331,12 +16331,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>10902</t>
+          <t>11115</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -16346,12 +16346,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,59%</t>
         </is>
       </c>
     </row>
@@ -16374,12 +16374,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>6642</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -16389,12 +16389,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -16409,12 +16409,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>6704</t>
+          <t>7137</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -16424,12 +16424,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -16444,12 +16444,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>3334</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>10910</t>
+          <t>11126</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -16459,12 +16459,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,6%</t>
         </is>
       </c>
     </row>
@@ -16487,12 +16487,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7781</t>
+          <t>7434</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -16502,12 +16502,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -16522,12 +16522,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>4201</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>10791</t>
+          <t>10610</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -16537,12 +16537,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -16557,12 +16557,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>7491</t>
+          <t>7333</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>15865</t>
+          <t>16079</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -16572,12 +16572,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>21,1%</t>
         </is>
       </c>
     </row>
@@ -16600,12 +16600,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>10752</t>
+          <t>11027</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>18043</t>
+          <t>18227</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -16615,12 +16615,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>43,34%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>70,91%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -16635,12 +16635,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>32639</t>
+          <t>32642</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>41826</t>
+          <t>41837</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -16650,12 +16650,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>64,31%</t>
+          <t>64,32%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>82,42%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -16670,12 +16670,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>46291</t>
+          <t>46167</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>57364</t>
+          <t>57548</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -16685,12 +16685,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>75,28%</t>
+          <t>75,53%</t>
         </is>
       </c>
     </row>
@@ -16830,12 +16830,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>118068</t>
+          <t>117969</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>148339</t>
+          <t>146944</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -16845,12 +16845,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -16865,12 +16865,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>102149</t>
+          <t>100130</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>128513</t>
+          <t>128146</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -16880,12 +16880,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -16900,12 +16900,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>226184</t>
+          <t>227105</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>269196</t>
+          <t>268788</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -16915,12 +16915,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>20,07%</t>
         </is>
       </c>
     </row>
@@ -16943,12 +16943,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>29119</t>
+          <t>29615</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>47287</t>
+          <t>47990</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -16958,12 +16958,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -16978,12 +16978,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>22098</t>
+          <t>21417</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>36602</t>
+          <t>35790</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -16993,12 +16993,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -17013,12 +17013,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>54768</t>
+          <t>54714</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>78220</t>
+          <t>78662</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>205810</t>
+          <t>205586</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>243040</t>
+          <t>242919</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -17071,12 +17071,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -17091,12 +17091,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>163069</t>
+          <t>165010</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>197124</t>
+          <t>198421</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -17106,12 +17106,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -17126,12 +17126,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>378807</t>
+          <t>377816</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>430402</t>
+          <t>429993</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -17141,12 +17141,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>32,11%</t>
         </is>
       </c>
     </row>
@@ -17169,12 +17169,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>226334</t>
+          <t>225590</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>262343</t>
+          <t>261196</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -17184,12 +17184,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>41,18%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>362390</t>
+          <t>361275</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>400349</t>
+          <t>398821</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -17219,12 +17219,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>56,81%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -17239,12 +17239,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>596845</t>
+          <t>597416</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>651575</t>
+          <t>651940</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -17254,12 +17254,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>48,66%</t>
+          <t>48,68%</t>
         </is>
       </c>
     </row>
